--- a/CUB/v1_Cub_Аналитика по продажам.xlsx
+++ b/CUB/v1_Cub_Аналитика по продажам.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQL_Developer\HW_DataBase2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CD5DDA-F267-42CE-B486-D8CD21BC4B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EC135A-F515-4C41-84FF-D204B0339508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" xr2:uid="{10B5FF85-3F79-483F-80FD-1F09643CDCDA}"/>
   </bookViews>
@@ -1237,6 +1237,11 @@
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -1944,6 +1949,11 @@
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -3061,6 +3071,11 @@
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -4262,6 +4277,11 @@
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -5318,6 +5338,11 @@
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -6222,6 +6247,11 @@
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -7536,6 +7566,11 @@
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -8934,6 +8969,11 @@
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -13298,13 +13338,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>110460</xdr:rowOff>
+      <xdr:rowOff>177135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2647950</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>113153</xdr:rowOff>
+      <xdr:rowOff>179828</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -13376,13 +13416,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>100406</xdr:rowOff>
+      <xdr:rowOff>167081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2562225</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>160249</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>36424</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -13453,14 +13493,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2514600</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>7551</xdr:rowOff>
+      <xdr:rowOff>74226</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -13532,13 +13572,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>25882</xdr:rowOff>
+      <xdr:rowOff>92557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2590800</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -13610,13 +13650,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>4760</xdr:rowOff>
+      <xdr:rowOff>71435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13646,13 +13686,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>781049</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13684,13 +13724,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13722,13 +13762,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>790574</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13759,14 +13799,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13797,14 +13837,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13836,13 +13876,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13873,14 +13913,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15740,10 +15780,2249 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F5D90C4-7451-4501-BB4E-FF51E9914DD7}" name="PivotChartTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F5D90C4-7451-4501-BB4E-FF51E9914DD7}" name="PivotChartTable8" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" fieldListSortAscending="1">
+  <location ref="A1:B90" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="88">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="89">
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="3" baseField="0" baseItem="87" numFmtId="3"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="6" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="24">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="4" level="1">
+        <member name="[Calendar Day].[Month Report].&amp;[2021-03]"/>
+        <member name="[Calendar Day].[Month Report].&amp;[2021-04]"/>
+        <member name="[Calendar Day].[Month Report].&amp;[2021-05]"/>
+        <member name="[Calendar Day].[Month Report].&amp;[2021-07]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="75" level="1">
+        <member name="[Source].[ID].&amp;[1]"/>
+        <member name="[Source].[ID].&amp;[10]"/>
+        <member name="[Source].[ID].&amp;[11]"/>
+        <member name="[Source].[ID].&amp;[12]"/>
+        <member name="[Source].[ID].&amp;[13]"/>
+        <member name="[Source].[ID].&amp;[14]"/>
+        <member name="[Source].[ID].&amp;[15]"/>
+        <member name="[Source].[ID].&amp;[16]"/>
+        <member name="[Source].[ID].&amp;[17]"/>
+        <member name="[Source].[ID].&amp;[18]"/>
+        <member name="[Source].[ID].&amp;[19]"/>
+        <member name="[Source].[ID].&amp;[2]"/>
+        <member name="[Source].[ID].&amp;[20]"/>
+        <member name="[Source].[ID].&amp;[21]"/>
+        <member name="[Source].[ID].&amp;[22]"/>
+        <member name="[Source].[ID].&amp;[23]"/>
+        <member name="[Source].[ID].&amp;[24]"/>
+        <member name="[Source].[ID].&amp;[25]"/>
+        <member name="[Source].[ID].&amp;[26]"/>
+        <member name="[Source].[ID].&amp;[27]"/>
+        <member name="[Source].[ID].&amp;[28]"/>
+        <member name="[Source].[ID].&amp;[29]"/>
+        <member name="[Source].[ID].&amp;[3]"/>
+        <member name="[Source].[ID].&amp;[30]"/>
+        <member name="[Source].[ID].&amp;[31]"/>
+        <member name="[Source].[ID].&amp;[32]"/>
+        <member name="[Source].[ID].&amp;[33]"/>
+        <member name="[Source].[ID].&amp;[34]"/>
+        <member name="[Source].[ID].&amp;[35]"/>
+        <member name="[Source].[ID].&amp;[36]"/>
+        <member name="[Source].[ID].&amp;[37]"/>
+        <member name="[Source].[ID].&amp;[38]"/>
+        <member name="[Source].[ID].&amp;[39]"/>
+        <member name="[Source].[ID].&amp;[4]"/>
+        <member name="[Source].[ID].&amp;[40]"/>
+        <member name="[Source].[ID].&amp;[41]"/>
+        <member name="[Source].[ID].&amp;[42]"/>
+        <member name="[Source].[ID].&amp;[43]"/>
+        <member name="[Source].[ID].&amp;[44]"/>
+        <member name="[Source].[ID].&amp;[45]"/>
+        <member name="[Source].[ID].&amp;[46]"/>
+        <member name="[Source].[ID].&amp;[47]"/>
+        <member name="[Source].[ID].&amp;[48]"/>
+        <member name="[Source].[ID].&amp;[49]"/>
+        <member name="[Source].[ID].&amp;[51]"/>
+        <member name="[Source].[ID].&amp;[52]"/>
+        <member name="[Source].[ID].&amp;[53]"/>
+        <member name="[Source].[ID].&amp;[54]"/>
+        <member name="[Source].[ID].&amp;[56]"/>
+        <member name="[Source].[ID].&amp;[57]"/>
+        <member name="[Source].[ID].&amp;[58]"/>
+        <member name="[Source].[ID].&amp;[59]"/>
+        <member name="[Source].[ID].&amp;[6]"/>
+        <member name="[Source].[ID].&amp;[60]"/>
+        <member name="[Source].[ID].&amp;[61]"/>
+        <member name="[Source].[ID].&amp;[62]"/>
+        <member name="[Source].[ID].&amp;[63]"/>
+        <member name="[Source].[ID].&amp;[64]"/>
+        <member name="[Source].[ID].&amp;[65]"/>
+        <member name="[Source].[ID].&amp;[66]"/>
+        <member name="[Source].[ID].&amp;[67]"/>
+        <member name="[Source].[ID].&amp;[68]"/>
+        <member name="[Source].[ID].&amp;[69]"/>
+        <member name="[Source].[ID].&amp;[7]"/>
+        <member name="[Source].[ID].&amp;[70]"/>
+        <member name="[Source].[ID].&amp;[71]"/>
+        <member name="[Source].[ID].&amp;[72]"/>
+        <member name="[Source].[ID].&amp;[73]"/>
+        <member name="[Source].[ID].&amp;[74]"/>
+        <member name="[Source].[ID].&amp;[75]"/>
+        <member name="[Source].[ID].&amp;[76]"/>
+        <member name="[Source].[ID].&amp;[78]"/>
+        <member name="[Source].[ID].&amp;[79]"/>
+        <member name="[Source].[ID].&amp;[8]"/>
+        <member name="[Source].[ID].&amp;[9]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="14"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="89" columnCount="1" cacheId="132711308">
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>141</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>146</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>149</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>154</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>158</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>160</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>168</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>169</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>173</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>174</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>174</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>174</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>175</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>175</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>179</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>184</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>184</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>186</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>187</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>187</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>187</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>187</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>189</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>189</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>190</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>191</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>193</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>193</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>194</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>195</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>197</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>197</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>198</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>198</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>198</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>200</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>200</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>201</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>202</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>202</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>206</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>207</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>207</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>208</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>209</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>210</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>210</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>210</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>211</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>211</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>211</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>214</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>214</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>217</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>217</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>218</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>220</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>221</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>223</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>223</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>226</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>227</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>229</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>229</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>231</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>233</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>236</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>236</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>238</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>238</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>239</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>240</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>240</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>242</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>242</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>243</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>246</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>247</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>247</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>248</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>250</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>253</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>256</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>258</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>259</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>265</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>266</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>272</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18401</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F5D90C4-7451-4501-BB4E-FF51E9914DD7}" name="PivotChartTable7" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" fieldListSortAscending="1">
+  <location ref="A1:B76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="74">
+        <item s="1" x="0"/>
+        <item s="1" x="1"/>
+        <item s="1" x="2"/>
+        <item s="1" x="3"/>
+        <item s="1" x="4"/>
+        <item s="1" x="5"/>
+        <item s="1" x="6"/>
+        <item s="1" x="7"/>
+        <item s="1" x="8"/>
+        <item s="1" x="9"/>
+        <item s="1" x="10"/>
+        <item s="1" x="11"/>
+        <item s="1" x="12"/>
+        <item s="1" x="13"/>
+        <item s="1" x="14"/>
+        <item s="1" x="15"/>
+        <item s="1" x="16"/>
+        <item s="1" x="17"/>
+        <item s="1" x="18"/>
+        <item s="1" x="19"/>
+        <item s="1" x="20"/>
+        <item s="1" x="21"/>
+        <item s="1" x="22"/>
+        <item s="1" x="23"/>
+        <item s="1" x="24"/>
+        <item s="1" x="25"/>
+        <item s="1" x="26"/>
+        <item s="1" x="27"/>
+        <item s="1" x="28"/>
+        <item s="1" x="29"/>
+        <item s="1" x="30"/>
+        <item s="1" x="31"/>
+        <item s="1" x="32"/>
+        <item s="1" x="33"/>
+        <item s="1" x="34"/>
+        <item s="1" x="35"/>
+        <item s="1" x="36"/>
+        <item s="1" x="37"/>
+        <item s="1" x="38"/>
+        <item s="1" x="39"/>
+        <item s="1" x="40"/>
+        <item s="1" x="41"/>
+        <item s="1" x="42"/>
+        <item s="1" x="43"/>
+        <item s="1" x="44"/>
+        <item s="1" x="45"/>
+        <item s="1" x="46"/>
+        <item s="1" x="47"/>
+        <item s="1" x="48"/>
+        <item s="1" x="49"/>
+        <item s="1" x="50"/>
+        <item s="1" x="51"/>
+        <item s="1" x="52"/>
+        <item s="1" x="53"/>
+        <item s="1" x="54"/>
+        <item s="1" x="55"/>
+        <item s="1" x="56"/>
+        <item s="1" x="57"/>
+        <item s="1" x="58"/>
+        <item s="1" x="59"/>
+        <item s="1" x="60"/>
+        <item s="1" x="61"/>
+        <item s="1" x="62"/>
+        <item s="1" x="63"/>
+        <item s="1" x="64"/>
+        <item s="1" x="65"/>
+        <item s="1" x="66"/>
+        <item s="1" x="67"/>
+        <item s="1" x="68"/>
+        <item s="1" x="69"/>
+        <item s="1" x="70"/>
+        <item s="1" x="71"/>
+        <item s="1" x="72"/>
+        <item s="1" x="73"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="75">
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="2" baseField="0" baseItem="23" numFmtId="3"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="6" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="24">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="4" level="1">
+        <member name="[Calendar Day].[Month Report].&amp;[2021-03]"/>
+        <member name="[Calendar Day].[Month Report].&amp;[2021-04]"/>
+        <member name="[Calendar Day].[Month Report].&amp;[2021-05]"/>
+        <member name="[Calendar Day].[Month Report].&amp;[2021-07]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="75" level="1">
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name="[Source].[ID].&amp;[79]"/>
+        <member name=""/>
+        <member name=""/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="15"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="75" columnCount="1" cacheId="1310568962">
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>185</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>191</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>192</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>194</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>196</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>198</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>200</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>201</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>203</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>212</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>216</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>219</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>220</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>220</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>223</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>224</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>226</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>227</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>229</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>233</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>235</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>237</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>237</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>237</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>238</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>240</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>240</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>243</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>243</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>243</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>244</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>245</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>245</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>245</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>247</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>247</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>248</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>248</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>249</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>249</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>250</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>252</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>255</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>256</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>256</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>257</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>258</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>258</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>259</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>260</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>264</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>266</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>266</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>266</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>267</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>268</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>269</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>269</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>270</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>273</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>275</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>276</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>278</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>281</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>284</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>286</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>292</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>292</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>294</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>297</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>299</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>307</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>312</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>320</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18401</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F5D90C4-7451-4501-BB4E-FF51E9914DD7}" name="PivotChartTable6" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" fieldListSortAscending="1">
+  <location ref="A1:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="27">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="3" baseField="0" baseItem="26" numFmtId="3"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="5" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="24">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="4" level="1">
+        <member name="[Calendar Day].[Month Report].&amp;[2021-03]"/>
+        <member name="[Calendar Day].[Month Report].&amp;[2021-04]"/>
+        <member name="[Calendar Day].[Month Report].&amp;[2021-05]"/>
+        <member name="[Calendar Day].[Month Report].&amp;[2021-07]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="75" level="1">
+        <member name="[Source].[ID].&amp;[1]"/>
+        <member name="[Source].[ID].&amp;[10]"/>
+        <member name="[Source].[ID].&amp;[11]"/>
+        <member name="[Source].[ID].&amp;[12]"/>
+        <member name="[Source].[ID].&amp;[13]"/>
+        <member name="[Source].[ID].&amp;[14]"/>
+        <member name="[Source].[ID].&amp;[15]"/>
+        <member name="[Source].[ID].&amp;[16]"/>
+        <member name="[Source].[ID].&amp;[17]"/>
+        <member name="[Source].[ID].&amp;[18]"/>
+        <member name="[Source].[ID].&amp;[19]"/>
+        <member name="[Source].[ID].&amp;[2]"/>
+        <member name="[Source].[ID].&amp;[20]"/>
+        <member name="[Source].[ID].&amp;[21]"/>
+        <member name="[Source].[ID].&amp;[22]"/>
+        <member name="[Source].[ID].&amp;[23]"/>
+        <member name="[Source].[ID].&amp;[24]"/>
+        <member name="[Source].[ID].&amp;[25]"/>
+        <member name="[Source].[ID].&amp;[26]"/>
+        <member name="[Source].[ID].&amp;[27]"/>
+        <member name="[Source].[ID].&amp;[28]"/>
+        <member name="[Source].[ID].&amp;[29]"/>
+        <member name="[Source].[ID].&amp;[3]"/>
+        <member name="[Source].[ID].&amp;[30]"/>
+        <member name="[Source].[ID].&amp;[31]"/>
+        <member name="[Source].[ID].&amp;[32]"/>
+        <member name="[Source].[ID].&amp;[33]"/>
+        <member name="[Source].[ID].&amp;[34]"/>
+        <member name="[Source].[ID].&amp;[35]"/>
+        <member name="[Source].[ID].&amp;[36]"/>
+        <member name="[Source].[ID].&amp;[37]"/>
+        <member name="[Source].[ID].&amp;[38]"/>
+        <member name="[Source].[ID].&amp;[39]"/>
+        <member name="[Source].[ID].&amp;[4]"/>
+        <member name="[Source].[ID].&amp;[40]"/>
+        <member name="[Source].[ID].&amp;[41]"/>
+        <member name="[Source].[ID].&amp;[42]"/>
+        <member name="[Source].[ID].&amp;[43]"/>
+        <member name="[Source].[ID].&amp;[44]"/>
+        <member name="[Source].[ID].&amp;[45]"/>
+        <member name="[Source].[ID].&amp;[46]"/>
+        <member name="[Source].[ID].&amp;[47]"/>
+        <member name="[Source].[ID].&amp;[48]"/>
+        <member name="[Source].[ID].&amp;[49]"/>
+        <member name="[Source].[ID].&amp;[51]"/>
+        <member name="[Source].[ID].&amp;[52]"/>
+        <member name="[Source].[ID].&amp;[53]"/>
+        <member name="[Source].[ID].&amp;[54]"/>
+        <member name="[Source].[ID].&amp;[56]"/>
+        <member name="[Source].[ID].&amp;[57]"/>
+        <member name="[Source].[ID].&amp;[58]"/>
+        <member name="[Source].[ID].&amp;[59]"/>
+        <member name="[Source].[ID].&amp;[6]"/>
+        <member name="[Source].[ID].&amp;[60]"/>
+        <member name="[Source].[ID].&amp;[61]"/>
+        <member name="[Source].[ID].&amp;[62]"/>
+        <member name="[Source].[ID].&amp;[63]"/>
+        <member name="[Source].[ID].&amp;[64]"/>
+        <member name="[Source].[ID].&amp;[65]"/>
+        <member name="[Source].[ID].&amp;[66]"/>
+        <member name="[Source].[ID].&amp;[67]"/>
+        <member name="[Source].[ID].&amp;[68]"/>
+        <member name="[Source].[ID].&amp;[69]"/>
+        <member name="[Source].[ID].&amp;[7]"/>
+        <member name="[Source].[ID].&amp;[70]"/>
+        <member name="[Source].[ID].&amp;[71]"/>
+        <member name="[Source].[ID].&amp;[72]"/>
+        <member name="[Source].[ID].&amp;[73]"/>
+        <member name="[Source].[ID].&amp;[74]"/>
+        <member name="[Source].[ID].&amp;[75]"/>
+        <member name="[Source].[ID].&amp;[76]"/>
+        <member name="[Source].[ID].&amp;[78]"/>
+        <member name="[Source].[ID].&amp;[79]"/>
+        <member name="[Source].[ID].&amp;[8]"/>
+        <member name="[Source].[ID].&amp;[9]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="16"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="28" columnCount="1" cacheId="311391049">
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>0</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>644</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>667</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>673</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>677</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>680</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>686</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>687</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>688</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>691</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>696</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>697</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>702</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>703</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>710</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>711</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>712</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>717</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>724</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>724</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>730</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>735</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>736</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>741</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>744</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>754</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>772</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18401</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F5D90C4-7451-4501-BB4E-FF51E9914DD7}" name="PivotChartTable5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" fieldListSortAscending="1">
   <location ref="A1:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="68">
         <item x="0"/>
@@ -15827,160 +18106,173 @@
     </pivotField>
     <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
     <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="0"/>
   </rowFields>
   <rowItems count="69">
     <i>
       <x v="67"/>
     </i>
     <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
       <x v="51"/>
     </i>
     <i>
-      <x v="10"/>
-    </i>
-    <i>
       <x v="37"/>
     </i>
     <i>
-      <x v="43"/>
-    </i>
-    <i>
       <x v="12"/>
     </i>
     <i>
       <x v="16"/>
     </i>
     <i>
-      <x v="58"/>
+      <x v="49"/>
     </i>
     <i>
       <x v="54"/>
     </i>
     <i>
+      <x v="5"/>
+    </i>
+    <i>
       <x v="48"/>
     </i>
     <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
       <x v="46"/>
     </i>
     <i>
+      <x v="19"/>
+    </i>
+    <i>
       <x v="52"/>
     </i>
     <i>
       <x v="38"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="29"/>
     </i>
     <i>
       <x v="32"/>
     </i>
     <i>
-      <x v="29"/>
-    </i>
-    <i>
       <x v="65"/>
     </i>
     <i>
       <x v="33"/>
     </i>
     <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
       <x v="34"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="24"/>
     </i>
     <i>
       <x v="20"/>
     </i>
     <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="60"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="23"/>
     </i>
     <i>
       <x v="13"/>
     </i>
     <i>
+      <x v="8"/>
+    </i>
+    <i>
       <x v="36"/>
     </i>
     <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="25"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="45"/>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="22"/>
     </i>
     <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="31"/>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="56"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="39"/>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i>
       <x v="47"/>
     </i>
     <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="22"/>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="62"/>
     </i>
     <i>
       <x v="28"/>
@@ -15989,30 +18281,18 @@
       <x v="40"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
       <x v="21"/>
     </i>
     <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
       <x v="61"/>
     </i>
     <i>
@@ -16022,13 +18302,13 @@
       <x v="64"/>
     </i>
     <i>
+      <x v="14"/>
+    </i>
+    <i>
       <x/>
     </i>
     <i>
       <x v="50"/>
-    </i>
-    <i>
-      <x v="14"/>
     </i>
     <i>
       <x v="3"/>
@@ -16044,10 +18324,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField fld="0" baseField="1" baseItem="67" numFmtId="3"/>
+    <dataField fld="3" baseField="0" baseItem="67" numFmtId="3"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="2" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -16176,7 +18456,7 @@
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="69" columnCount="1" cacheId="1016892102">
+      <x15:pivotTableData rowCount="69" columnCount="1" cacheId="1848116811">
         <x15:pivotRow count="1">
           <x15:c>
             <x15:v>0</x15:v>
@@ -16184,342 +18464,342 @@
         </x15:pivotRow>
         <x15:pivotRow count="1">
           <x15:c>
-            <x15:v>938937</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>1012683</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>1123195</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>1430760</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>1469179</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>1559601</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>1572191</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>2360262</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>2875035</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>3016482</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>3052423</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>5297487</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>6213397</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>6216814</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>6321457</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>6497111</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>7155603</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>7343410</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>7353488</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>7956310</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>7991766</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>8151956</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>8580728</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>8791649</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>9016198</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>9300673</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>9612655</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>9834499</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>9893214</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10123118</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10360098</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10588644</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10678219</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12699710</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12910775</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>13294042</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>13331851</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>13912988</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14106280</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14220323</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14431043</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14607659</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14621886</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14637771</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14666195</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14822414</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>15209871</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>15320011</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>15441754</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>15801641</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>16153747</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>16588782</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>16718431</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>17312150</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>17873234</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>19823326</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>19948401</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20203021</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20278653</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20566908</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22877260</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>25382278</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26935980</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28560826</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30117832</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>32323881</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>35493068</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>834883234</x15:v>
+            <x15:v>13</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>15</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>17</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>38</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>43</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>44</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>79</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>153</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>154</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>159</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>161</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>165</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>168</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>170</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>175</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>184</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>186</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>186</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>189</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>190</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>190</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>200</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>202</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>205</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>206</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>206</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>210</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>229</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>300</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>305</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>306</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>309</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>313</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>320</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>320</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>320</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>324</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>324</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>325</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>331</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>336</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>337</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>346</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>347</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>350</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>350</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>355</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>361</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>363</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>378</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>431</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>449</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>450</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>455</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>471</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>510</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>604</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>604</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>624</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>648</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>752</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>822</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18401</x15:v>
           </x15:c>
         </x15:pivotRow>
       </x15:pivotTableData>
@@ -16531,1523 +18811,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F5D90C4-7451-4501-BB4E-FF51E9914DD7}" name="PivotChartTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
-  <location ref="A1:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="64">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="27">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="28">
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" baseField="2" baseItem="26" numFmtId="3"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="24">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="4" level="1">
-        <member name="[Calendar Day].[Month Report].&amp;[2021-03]"/>
-        <member name="[Calendar Day].[Month Report].&amp;[2021-04]"/>
-        <member name="[Calendar Day].[Month Report].&amp;[2021-05]"/>
-        <member name="[Calendar Day].[Month Report].&amp;[2021-07]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="75" level="1">
-        <member name="[Source].[ID].&amp;[1]"/>
-        <member name="[Source].[ID].&amp;[10]"/>
-        <member name="[Source].[ID].&amp;[11]"/>
-        <member name="[Source].[ID].&amp;[12]"/>
-        <member name="[Source].[ID].&amp;[13]"/>
-        <member name="[Source].[ID].&amp;[14]"/>
-        <member name="[Source].[ID].&amp;[15]"/>
-        <member name="[Source].[ID].&amp;[16]"/>
-        <member name="[Source].[ID].&amp;[17]"/>
-        <member name="[Source].[ID].&amp;[18]"/>
-        <member name="[Source].[ID].&amp;[19]"/>
-        <member name="[Source].[ID].&amp;[2]"/>
-        <member name="[Source].[ID].&amp;[20]"/>
-        <member name="[Source].[ID].&amp;[21]"/>
-        <member name="[Source].[ID].&amp;[22]"/>
-        <member name="[Source].[ID].&amp;[23]"/>
-        <member name="[Source].[ID].&amp;[24]"/>
-        <member name="[Source].[ID].&amp;[25]"/>
-        <member name="[Source].[ID].&amp;[26]"/>
-        <member name="[Source].[ID].&amp;[27]"/>
-        <member name="[Source].[ID].&amp;[28]"/>
-        <member name="[Source].[ID].&amp;[29]"/>
-        <member name="[Source].[ID].&amp;[3]"/>
-        <member name="[Source].[ID].&amp;[30]"/>
-        <member name="[Source].[ID].&amp;[31]"/>
-        <member name="[Source].[ID].&amp;[32]"/>
-        <member name="[Source].[ID].&amp;[33]"/>
-        <member name="[Source].[ID].&amp;[34]"/>
-        <member name="[Source].[ID].&amp;[35]"/>
-        <member name="[Source].[ID].&amp;[36]"/>
-        <member name="[Source].[ID].&amp;[37]"/>
-        <member name="[Source].[ID].&amp;[38]"/>
-        <member name="[Source].[ID].&amp;[39]"/>
-        <member name="[Source].[ID].&amp;[4]"/>
-        <member name="[Source].[ID].&amp;[40]"/>
-        <member name="[Source].[ID].&amp;[41]"/>
-        <member name="[Source].[ID].&amp;[42]"/>
-        <member name="[Source].[ID].&amp;[43]"/>
-        <member name="[Source].[ID].&amp;[44]"/>
-        <member name="[Source].[ID].&amp;[45]"/>
-        <member name="[Source].[ID].&amp;[46]"/>
-        <member name="[Source].[ID].&amp;[47]"/>
-        <member name="[Source].[ID].&amp;[48]"/>
-        <member name="[Source].[ID].&amp;[49]"/>
-        <member name="[Source].[ID].&amp;[51]"/>
-        <member name="[Source].[ID].&amp;[52]"/>
-        <member name="[Source].[ID].&amp;[53]"/>
-        <member name="[Source].[ID].&amp;[54]"/>
-        <member name="[Source].[ID].&amp;[56]"/>
-        <member name="[Source].[ID].&amp;[57]"/>
-        <member name="[Source].[ID].&amp;[58]"/>
-        <member name="[Source].[ID].&amp;[59]"/>
-        <member name="[Source].[ID].&amp;[6]"/>
-        <member name="[Source].[ID].&amp;[60]"/>
-        <member name="[Source].[ID].&amp;[61]"/>
-        <member name="[Source].[ID].&amp;[62]"/>
-        <member name="[Source].[ID].&amp;[63]"/>
-        <member name="[Source].[ID].&amp;[64]"/>
-        <member name="[Source].[ID].&amp;[65]"/>
-        <member name="[Source].[ID].&amp;[66]"/>
-        <member name="[Source].[ID].&amp;[67]"/>
-        <member name="[Source].[ID].&amp;[68]"/>
-        <member name="[Source].[ID].&amp;[69]"/>
-        <member name="[Source].[ID].&amp;[7]"/>
-        <member name="[Source].[ID].&amp;[70]"/>
-        <member name="[Source].[ID].&amp;[71]"/>
-        <member name="[Source].[ID].&amp;[72]"/>
-        <member name="[Source].[ID].&amp;[73]"/>
-        <member name="[Source].[ID].&amp;[74]"/>
-        <member name="[Source].[ID].&amp;[75]"/>
-        <member name="[Source].[ID].&amp;[76]"/>
-        <member name="[Source].[ID].&amp;[78]"/>
-        <member name="[Source].[ID].&amp;[79]"/>
-        <member name="[Source].[ID].&amp;[8]"/>
-        <member name="[Source].[ID].&amp;[9]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="16"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="28" columnCount="1" cacheId="1543627702">
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>0</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>6683342</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10696277</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10855174</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11122790</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11472636</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12027908</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14445852</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14781282</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18497754</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18910782</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>19589328</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>19677834</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20813661</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>29215872</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36635210</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>37868530</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>39253500</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>41175000</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>41907000</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>42773120</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>52302822</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>58508967</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>65150068</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>66281829</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>66626278</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>67610418</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>834883234</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F5D90C4-7451-4501-BB4E-FF51E9914DD7}" name="PivotChartTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" fieldListSortAscending="1">
-  <location ref="A1:B76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="64">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="27">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="74">
-        <item s="1" x="0"/>
-        <item s="1" x="1"/>
-        <item s="1" x="2"/>
-        <item s="1" x="3"/>
-        <item s="1" x="4"/>
-        <item s="1" x="5"/>
-        <item s="1" x="6"/>
-        <item s="1" x="7"/>
-        <item s="1" x="8"/>
-        <item s="1" x="9"/>
-        <item s="1" x="10"/>
-        <item s="1" x="11"/>
-        <item s="1" x="12"/>
-        <item s="1" x="13"/>
-        <item s="1" x="14"/>
-        <item s="1" x="15"/>
-        <item s="1" x="16"/>
-        <item s="1" x="17"/>
-        <item s="1" x="18"/>
-        <item s="1" x="19"/>
-        <item s="1" x="20"/>
-        <item s="1" x="21"/>
-        <item s="1" x="22"/>
-        <item s="1" x="23"/>
-        <item s="1" x="24"/>
-        <item s="1" x="25"/>
-        <item s="1" x="26"/>
-        <item s="1" x="27"/>
-        <item s="1" x="28"/>
-        <item s="1" x="29"/>
-        <item s="1" x="30"/>
-        <item s="1" x="31"/>
-        <item s="1" x="32"/>
-        <item s="1" x="33"/>
-        <item s="1" x="34"/>
-        <item s="1" x="35"/>
-        <item s="1" x="36"/>
-        <item s="1" x="37"/>
-        <item s="1" x="38"/>
-        <item s="1" x="39"/>
-        <item s="1" x="40"/>
-        <item s="1" x="41"/>
-        <item s="1" x="42"/>
-        <item s="1" x="43"/>
-        <item s="1" x="44"/>
-        <item s="1" x="45"/>
-        <item s="1" x="46"/>
-        <item s="1" x="47"/>
-        <item s="1" x="48"/>
-        <item s="1" x="49"/>
-        <item s="1" x="50"/>
-        <item s="1" x="51"/>
-        <item s="1" x="52"/>
-        <item s="1" x="53"/>
-        <item s="1" x="54"/>
-        <item s="1" x="55"/>
-        <item s="1" x="56"/>
-        <item s="1" x="57"/>
-        <item s="1" x="58"/>
-        <item s="1" x="59"/>
-        <item s="1" x="60"/>
-        <item s="1" x="61"/>
-        <item s="1" x="62"/>
-        <item s="1" x="63"/>
-        <item s="1" x="64"/>
-        <item s="1" x="65"/>
-        <item s="1" x="66"/>
-        <item s="1" x="67"/>
-        <item s="1" x="68"/>
-        <item s="1" x="69"/>
-        <item s="1" x="70"/>
-        <item s="1" x="71"/>
-        <item s="1" x="72"/>
-        <item s="1" x="73"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="75">
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" baseField="3" baseItem="9" numFmtId="3"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="24">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="4" level="1">
-        <member name="[Calendar Day].[Month Report].&amp;[2021-03]"/>
-        <member name="[Calendar Day].[Month Report].&amp;[2021-04]"/>
-        <member name="[Calendar Day].[Month Report].&amp;[2021-05]"/>
-        <member name="[Calendar Day].[Month Report].&amp;[2021-07]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="75" level="1">
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name="[Source].[ID].&amp;[79]"/>
-        <member name=""/>
-        <member name=""/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="15"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="75" columnCount="1" cacheId="78684250">
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>7797768</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>8017706</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>8452952</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>8941539</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>9410188</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>9581343</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>9613974</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>9649780</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>9717683</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>9896218</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>9906670</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>9933890</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10152926</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10203390</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10276775</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10361364</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10388967</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10404309</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10434260</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10723040</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10757880</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10768338</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10815786</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10850505</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10859771</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10914019</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11000071</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11128580</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11138637</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11165893</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11189511</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11230174</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11260743</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11267099</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11365238</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11379723</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11391186</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11399603</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11461093</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11533411</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11574518</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11577753</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11597098</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11696116</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11731477</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11731525</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11740019</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11789534</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11877536</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11897643</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11958350</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>11973428</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12061335</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12063002</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12064005</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12079953</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12085096</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12097885</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12141066</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12162604</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12221347</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12237409</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12426180</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12533201</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12583434</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12610559</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12655805</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12671409</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12903793</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>13085846</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>13388983</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>13431384</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>13561895</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>13930043</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>834883234</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F5D90C4-7451-4501-BB4E-FF51E9914DD7}" name="PivotChartTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" fieldListSortAscending="1">
   <location ref="A1:B90" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -19172,10 +19936,1527 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F5D90C4-7451-4501-BB4E-FF51E9914DD7}" name="PivotChartTable5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" fieldListSortAscending="1">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F5D90C4-7451-4501-BB4E-FF51E9914DD7}" name="PivotChartTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" fieldListSortAscending="1">
+  <location ref="A1:B76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="64">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="27">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="74">
+        <item s="1" x="0"/>
+        <item s="1" x="1"/>
+        <item s="1" x="2"/>
+        <item s="1" x="3"/>
+        <item s="1" x="4"/>
+        <item s="1" x="5"/>
+        <item s="1" x="6"/>
+        <item s="1" x="7"/>
+        <item s="1" x="8"/>
+        <item s="1" x="9"/>
+        <item s="1" x="10"/>
+        <item s="1" x="11"/>
+        <item s="1" x="12"/>
+        <item s="1" x="13"/>
+        <item s="1" x="14"/>
+        <item s="1" x="15"/>
+        <item s="1" x="16"/>
+        <item s="1" x="17"/>
+        <item s="1" x="18"/>
+        <item s="1" x="19"/>
+        <item s="1" x="20"/>
+        <item s="1" x="21"/>
+        <item s="1" x="22"/>
+        <item s="1" x="23"/>
+        <item s="1" x="24"/>
+        <item s="1" x="25"/>
+        <item s="1" x="26"/>
+        <item s="1" x="27"/>
+        <item s="1" x="28"/>
+        <item s="1" x="29"/>
+        <item s="1" x="30"/>
+        <item s="1" x="31"/>
+        <item s="1" x="32"/>
+        <item s="1" x="33"/>
+        <item s="1" x="34"/>
+        <item s="1" x="35"/>
+        <item s="1" x="36"/>
+        <item s="1" x="37"/>
+        <item s="1" x="38"/>
+        <item s="1" x="39"/>
+        <item s="1" x="40"/>
+        <item s="1" x="41"/>
+        <item s="1" x="42"/>
+        <item s="1" x="43"/>
+        <item s="1" x="44"/>
+        <item s="1" x="45"/>
+        <item s="1" x="46"/>
+        <item s="1" x="47"/>
+        <item s="1" x="48"/>
+        <item s="1" x="49"/>
+        <item s="1" x="50"/>
+        <item s="1" x="51"/>
+        <item s="1" x="52"/>
+        <item s="1" x="53"/>
+        <item s="1" x="54"/>
+        <item s="1" x="55"/>
+        <item s="1" x="56"/>
+        <item s="1" x="57"/>
+        <item s="1" x="58"/>
+        <item s="1" x="59"/>
+        <item s="1" x="60"/>
+        <item s="1" x="61"/>
+        <item s="1" x="62"/>
+        <item s="1" x="63"/>
+        <item s="1" x="64"/>
+        <item s="1" x="65"/>
+        <item s="1" x="66"/>
+        <item s="1" x="67"/>
+        <item s="1" x="68"/>
+        <item s="1" x="69"/>
+        <item s="1" x="70"/>
+        <item s="1" x="71"/>
+        <item s="1" x="72"/>
+        <item s="1" x="73"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="75">
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" baseField="3" baseItem="9" numFmtId="3"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="24">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="4" level="1">
+        <member name="[Calendar Day].[Month Report].&amp;[2021-03]"/>
+        <member name="[Calendar Day].[Month Report].&amp;[2021-04]"/>
+        <member name="[Calendar Day].[Month Report].&amp;[2021-05]"/>
+        <member name="[Calendar Day].[Month Report].&amp;[2021-07]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="75" level="1">
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name="[Source].[ID].&amp;[79]"/>
+        <member name=""/>
+        <member name=""/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="15"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="75" columnCount="1" cacheId="78684250">
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>7797768</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>8017706</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>8452952</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>8941539</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>9410188</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>9581343</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>9613974</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>9649780</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>9717683</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>9896218</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>9906670</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>9933890</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10152926</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10203390</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10276775</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10361364</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10388967</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10404309</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10434260</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10723040</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10757880</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10768338</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10815786</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10850505</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10859771</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10914019</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11000071</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11128580</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11138637</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11165893</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11189511</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11230174</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11260743</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11267099</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11365238</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11379723</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11391186</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11399603</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11461093</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11533411</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11574518</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11577753</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11597098</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11696116</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11731477</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11731525</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11740019</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11789534</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11877536</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11897643</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11958350</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11973428</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12061335</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12063002</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12064005</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12079953</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12085096</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12097885</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12141066</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12162604</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12221347</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12237409</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12426180</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12533201</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12583434</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12610559</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12655805</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12671409</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12903793</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>13085846</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>13388983</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>13431384</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>13561895</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>13930043</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>834883234</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F5D90C4-7451-4501-BB4E-FF51E9914DD7}" name="PivotChartTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
+  <location ref="A1:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="64">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="27">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" baseField="2" baseItem="26" numFmtId="3"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="24">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="4" level="1">
+        <member name="[Calendar Day].[Month Report].&amp;[2021-03]"/>
+        <member name="[Calendar Day].[Month Report].&amp;[2021-04]"/>
+        <member name="[Calendar Day].[Month Report].&amp;[2021-05]"/>
+        <member name="[Calendar Day].[Month Report].&amp;[2021-07]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="75" level="1">
+        <member name="[Source].[ID].&amp;[1]"/>
+        <member name="[Source].[ID].&amp;[10]"/>
+        <member name="[Source].[ID].&amp;[11]"/>
+        <member name="[Source].[ID].&amp;[12]"/>
+        <member name="[Source].[ID].&amp;[13]"/>
+        <member name="[Source].[ID].&amp;[14]"/>
+        <member name="[Source].[ID].&amp;[15]"/>
+        <member name="[Source].[ID].&amp;[16]"/>
+        <member name="[Source].[ID].&amp;[17]"/>
+        <member name="[Source].[ID].&amp;[18]"/>
+        <member name="[Source].[ID].&amp;[19]"/>
+        <member name="[Source].[ID].&amp;[2]"/>
+        <member name="[Source].[ID].&amp;[20]"/>
+        <member name="[Source].[ID].&amp;[21]"/>
+        <member name="[Source].[ID].&amp;[22]"/>
+        <member name="[Source].[ID].&amp;[23]"/>
+        <member name="[Source].[ID].&amp;[24]"/>
+        <member name="[Source].[ID].&amp;[25]"/>
+        <member name="[Source].[ID].&amp;[26]"/>
+        <member name="[Source].[ID].&amp;[27]"/>
+        <member name="[Source].[ID].&amp;[28]"/>
+        <member name="[Source].[ID].&amp;[29]"/>
+        <member name="[Source].[ID].&amp;[3]"/>
+        <member name="[Source].[ID].&amp;[30]"/>
+        <member name="[Source].[ID].&amp;[31]"/>
+        <member name="[Source].[ID].&amp;[32]"/>
+        <member name="[Source].[ID].&amp;[33]"/>
+        <member name="[Source].[ID].&amp;[34]"/>
+        <member name="[Source].[ID].&amp;[35]"/>
+        <member name="[Source].[ID].&amp;[36]"/>
+        <member name="[Source].[ID].&amp;[37]"/>
+        <member name="[Source].[ID].&amp;[38]"/>
+        <member name="[Source].[ID].&amp;[39]"/>
+        <member name="[Source].[ID].&amp;[4]"/>
+        <member name="[Source].[ID].&amp;[40]"/>
+        <member name="[Source].[ID].&amp;[41]"/>
+        <member name="[Source].[ID].&amp;[42]"/>
+        <member name="[Source].[ID].&amp;[43]"/>
+        <member name="[Source].[ID].&amp;[44]"/>
+        <member name="[Source].[ID].&amp;[45]"/>
+        <member name="[Source].[ID].&amp;[46]"/>
+        <member name="[Source].[ID].&amp;[47]"/>
+        <member name="[Source].[ID].&amp;[48]"/>
+        <member name="[Source].[ID].&amp;[49]"/>
+        <member name="[Source].[ID].&amp;[51]"/>
+        <member name="[Source].[ID].&amp;[52]"/>
+        <member name="[Source].[ID].&amp;[53]"/>
+        <member name="[Source].[ID].&amp;[54]"/>
+        <member name="[Source].[ID].&amp;[56]"/>
+        <member name="[Source].[ID].&amp;[57]"/>
+        <member name="[Source].[ID].&amp;[58]"/>
+        <member name="[Source].[ID].&amp;[59]"/>
+        <member name="[Source].[ID].&amp;[6]"/>
+        <member name="[Source].[ID].&amp;[60]"/>
+        <member name="[Source].[ID].&amp;[61]"/>
+        <member name="[Source].[ID].&amp;[62]"/>
+        <member name="[Source].[ID].&amp;[63]"/>
+        <member name="[Source].[ID].&amp;[64]"/>
+        <member name="[Source].[ID].&amp;[65]"/>
+        <member name="[Source].[ID].&amp;[66]"/>
+        <member name="[Source].[ID].&amp;[67]"/>
+        <member name="[Source].[ID].&amp;[68]"/>
+        <member name="[Source].[ID].&amp;[69]"/>
+        <member name="[Source].[ID].&amp;[7]"/>
+        <member name="[Source].[ID].&amp;[70]"/>
+        <member name="[Source].[ID].&amp;[71]"/>
+        <member name="[Source].[ID].&amp;[72]"/>
+        <member name="[Source].[ID].&amp;[73]"/>
+        <member name="[Source].[ID].&amp;[74]"/>
+        <member name="[Source].[ID].&amp;[75]"/>
+        <member name="[Source].[ID].&amp;[76]"/>
+        <member name="[Source].[ID].&amp;[78]"/>
+        <member name="[Source].[ID].&amp;[79]"/>
+        <member name="[Source].[ID].&amp;[8]"/>
+        <member name="[Source].[ID].&amp;[9]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="16"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="28" columnCount="1" cacheId="1543627702">
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>0</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>6683342</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10696277</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10855174</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11122790</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>11472636</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12027908</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14445852</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14781282</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18497754</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18910782</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>19589328</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>19677834</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20813661</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>29215872</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36635210</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>37868530</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>39253500</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>41175000</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>41907000</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>42773120</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>52302822</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>58508967</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>65150068</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>66281829</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>66626278</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>67610418</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>834883234</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F5D90C4-7451-4501-BB4E-FF51E9914DD7}" name="PivotChartTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A1:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="68">
         <item x="0"/>
@@ -19259,193 +21540,192 @@
     </pivotField>
     <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
     <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="69">
     <i>
       <x v="67"/>
     </i>
     <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
       <x v="58"/>
     </i>
     <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="16"/>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i>
       <x v="49"/>
     </i>
     <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
       <x v="46"/>
     </i>
     <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
       <x v="19"/>
     </i>
     <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="38"/>
+      <x v="32"/>
     </i>
     <i>
       <x v="29"/>
     </i>
     <i>
-      <x v="32"/>
-    </i>
-    <i>
       <x v="65"/>
     </i>
     <i>
       <x v="33"/>
     </i>
     <i>
+      <x v="34"/>
+    </i>
+    <i>
       <x v="17"/>
     </i>
     <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
       <x v="59"/>
     </i>
     <i>
-      <x v="34"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="36"/>
     </i>
     <i>
       <x v="57"/>
     </i>
     <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="1"/>
+      <x v="23"/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
       <x v="8"/>
     </i>
     <i>
-      <x v="36"/>
+      <x v="11"/>
     </i>
     <i>
       <x v="45"/>
     </i>
     <i>
+      <x v="26"/>
+    </i>
+    <i>
       <x v="25"/>
     </i>
     <i>
-      <x v="11"/>
-    </i>
-    <i>
       <x v="31"/>
     </i>
     <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
       <x v="44"/>
     </i>
     <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
       <x v="22"/>
     </i>
     <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="55"/>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="40"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
       <x v="6"/>
     </i>
     <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
       <x v="21"/>
     </i>
     <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
       <x v="63"/>
     </i>
     <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
       <x v="61"/>
     </i>
     <i>
@@ -19455,13 +21735,13 @@
       <x v="64"/>
     </i>
     <i>
+      <x/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
       <x v="14"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="50"/>
     </i>
     <i>
       <x v="3"/>
@@ -19477,10 +21757,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField fld="3" baseField="0" baseItem="67" numFmtId="3"/>
+    <dataField fld="0" baseField="1" baseItem="67" numFmtId="3"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="2" format="4" series="1">
+    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19609,7 +21889,7 @@
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="69" columnCount="1" cacheId="1848116811">
+      <x15:pivotTableData rowCount="69" columnCount="1" cacheId="1016892102">
         <x15:pivotRow count="1">
           <x15:c>
             <x15:v>0</x15:v>
@@ -19617,2582 +21897,342 @@
         </x15:pivotRow>
         <x15:pivotRow count="1">
           <x15:c>
-            <x15:v>13</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>15</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>17</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>38</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>43</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>44</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>79</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>153</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>154</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>159</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>161</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>165</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>168</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>170</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>175</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>184</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>186</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>186</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>189</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>190</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>190</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>200</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>202</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>205</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>206</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>206</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>210</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>229</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>300</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>305</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>306</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>309</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>313</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>320</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>320</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>320</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>324</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>324</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>325</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>331</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>336</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>337</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>346</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>347</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>350</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>350</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>355</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>361</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>363</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>378</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>431</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>449</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>450</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>455</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>471</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>510</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>604</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>604</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>624</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>648</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>752</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>822</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18401</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F5D90C4-7451-4501-BB4E-FF51E9914DD7}" name="PivotChartTable6" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" fieldListSortAscending="1">
-  <location ref="A1:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="27">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="28">
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="3" baseField="0" baseItem="26" numFmtId="3"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="5" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="24">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="4" level="1">
-        <member name="[Calendar Day].[Month Report].&amp;[2021-03]"/>
-        <member name="[Calendar Day].[Month Report].&amp;[2021-04]"/>
-        <member name="[Calendar Day].[Month Report].&amp;[2021-05]"/>
-        <member name="[Calendar Day].[Month Report].&amp;[2021-07]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="75" level="1">
-        <member name="[Source].[ID].&amp;[1]"/>
-        <member name="[Source].[ID].&amp;[10]"/>
-        <member name="[Source].[ID].&amp;[11]"/>
-        <member name="[Source].[ID].&amp;[12]"/>
-        <member name="[Source].[ID].&amp;[13]"/>
-        <member name="[Source].[ID].&amp;[14]"/>
-        <member name="[Source].[ID].&amp;[15]"/>
-        <member name="[Source].[ID].&amp;[16]"/>
-        <member name="[Source].[ID].&amp;[17]"/>
-        <member name="[Source].[ID].&amp;[18]"/>
-        <member name="[Source].[ID].&amp;[19]"/>
-        <member name="[Source].[ID].&amp;[2]"/>
-        <member name="[Source].[ID].&amp;[20]"/>
-        <member name="[Source].[ID].&amp;[21]"/>
-        <member name="[Source].[ID].&amp;[22]"/>
-        <member name="[Source].[ID].&amp;[23]"/>
-        <member name="[Source].[ID].&amp;[24]"/>
-        <member name="[Source].[ID].&amp;[25]"/>
-        <member name="[Source].[ID].&amp;[26]"/>
-        <member name="[Source].[ID].&amp;[27]"/>
-        <member name="[Source].[ID].&amp;[28]"/>
-        <member name="[Source].[ID].&amp;[29]"/>
-        <member name="[Source].[ID].&amp;[3]"/>
-        <member name="[Source].[ID].&amp;[30]"/>
-        <member name="[Source].[ID].&amp;[31]"/>
-        <member name="[Source].[ID].&amp;[32]"/>
-        <member name="[Source].[ID].&amp;[33]"/>
-        <member name="[Source].[ID].&amp;[34]"/>
-        <member name="[Source].[ID].&amp;[35]"/>
-        <member name="[Source].[ID].&amp;[36]"/>
-        <member name="[Source].[ID].&amp;[37]"/>
-        <member name="[Source].[ID].&amp;[38]"/>
-        <member name="[Source].[ID].&amp;[39]"/>
-        <member name="[Source].[ID].&amp;[4]"/>
-        <member name="[Source].[ID].&amp;[40]"/>
-        <member name="[Source].[ID].&amp;[41]"/>
-        <member name="[Source].[ID].&amp;[42]"/>
-        <member name="[Source].[ID].&amp;[43]"/>
-        <member name="[Source].[ID].&amp;[44]"/>
-        <member name="[Source].[ID].&amp;[45]"/>
-        <member name="[Source].[ID].&amp;[46]"/>
-        <member name="[Source].[ID].&amp;[47]"/>
-        <member name="[Source].[ID].&amp;[48]"/>
-        <member name="[Source].[ID].&amp;[49]"/>
-        <member name="[Source].[ID].&amp;[51]"/>
-        <member name="[Source].[ID].&amp;[52]"/>
-        <member name="[Source].[ID].&amp;[53]"/>
-        <member name="[Source].[ID].&amp;[54]"/>
-        <member name="[Source].[ID].&amp;[56]"/>
-        <member name="[Source].[ID].&amp;[57]"/>
-        <member name="[Source].[ID].&amp;[58]"/>
-        <member name="[Source].[ID].&amp;[59]"/>
-        <member name="[Source].[ID].&amp;[6]"/>
-        <member name="[Source].[ID].&amp;[60]"/>
-        <member name="[Source].[ID].&amp;[61]"/>
-        <member name="[Source].[ID].&amp;[62]"/>
-        <member name="[Source].[ID].&amp;[63]"/>
-        <member name="[Source].[ID].&amp;[64]"/>
-        <member name="[Source].[ID].&amp;[65]"/>
-        <member name="[Source].[ID].&amp;[66]"/>
-        <member name="[Source].[ID].&amp;[67]"/>
-        <member name="[Source].[ID].&amp;[68]"/>
-        <member name="[Source].[ID].&amp;[69]"/>
-        <member name="[Source].[ID].&amp;[7]"/>
-        <member name="[Source].[ID].&amp;[70]"/>
-        <member name="[Source].[ID].&amp;[71]"/>
-        <member name="[Source].[ID].&amp;[72]"/>
-        <member name="[Source].[ID].&amp;[73]"/>
-        <member name="[Source].[ID].&amp;[74]"/>
-        <member name="[Source].[ID].&amp;[75]"/>
-        <member name="[Source].[ID].&amp;[76]"/>
-        <member name="[Source].[ID].&amp;[78]"/>
-        <member name="[Source].[ID].&amp;[79]"/>
-        <member name="[Source].[ID].&amp;[8]"/>
-        <member name="[Source].[ID].&amp;[9]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="16"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="28" columnCount="1" cacheId="311391049">
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>0</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>644</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>667</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>673</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>677</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>680</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>686</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>687</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>688</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>691</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>696</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>697</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>702</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>703</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>710</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>711</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>712</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>717</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>724</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>724</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>730</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>735</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>736</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>741</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>744</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>754</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>772</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18401</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F5D90C4-7451-4501-BB4E-FF51E9914DD7}" name="PivotChartTable7" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" fieldListSortAscending="1">
-  <location ref="A1:B76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="74">
-        <item s="1" x="0"/>
-        <item s="1" x="1"/>
-        <item s="1" x="2"/>
-        <item s="1" x="3"/>
-        <item s="1" x="4"/>
-        <item s="1" x="5"/>
-        <item s="1" x="6"/>
-        <item s="1" x="7"/>
-        <item s="1" x="8"/>
-        <item s="1" x="9"/>
-        <item s="1" x="10"/>
-        <item s="1" x="11"/>
-        <item s="1" x="12"/>
-        <item s="1" x="13"/>
-        <item s="1" x="14"/>
-        <item s="1" x="15"/>
-        <item s="1" x="16"/>
-        <item s="1" x="17"/>
-        <item s="1" x="18"/>
-        <item s="1" x="19"/>
-        <item s="1" x="20"/>
-        <item s="1" x="21"/>
-        <item s="1" x="22"/>
-        <item s="1" x="23"/>
-        <item s="1" x="24"/>
-        <item s="1" x="25"/>
-        <item s="1" x="26"/>
-        <item s="1" x="27"/>
-        <item s="1" x="28"/>
-        <item s="1" x="29"/>
-        <item s="1" x="30"/>
-        <item s="1" x="31"/>
-        <item s="1" x="32"/>
-        <item s="1" x="33"/>
-        <item s="1" x="34"/>
-        <item s="1" x="35"/>
-        <item s="1" x="36"/>
-        <item s="1" x="37"/>
-        <item s="1" x="38"/>
-        <item s="1" x="39"/>
-        <item s="1" x="40"/>
-        <item s="1" x="41"/>
-        <item s="1" x="42"/>
-        <item s="1" x="43"/>
-        <item s="1" x="44"/>
-        <item s="1" x="45"/>
-        <item s="1" x="46"/>
-        <item s="1" x="47"/>
-        <item s="1" x="48"/>
-        <item s="1" x="49"/>
-        <item s="1" x="50"/>
-        <item s="1" x="51"/>
-        <item s="1" x="52"/>
-        <item s="1" x="53"/>
-        <item s="1" x="54"/>
-        <item s="1" x="55"/>
-        <item s="1" x="56"/>
-        <item s="1" x="57"/>
-        <item s="1" x="58"/>
-        <item s="1" x="59"/>
-        <item s="1" x="60"/>
-        <item s="1" x="61"/>
-        <item s="1" x="62"/>
-        <item s="1" x="63"/>
-        <item s="1" x="64"/>
-        <item s="1" x="65"/>
-        <item s="1" x="66"/>
-        <item s="1" x="67"/>
-        <item s="1" x="68"/>
-        <item s="1" x="69"/>
-        <item s="1" x="70"/>
-        <item s="1" x="71"/>
-        <item s="1" x="72"/>
-        <item s="1" x="73"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="75">
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="2" baseField="0" baseItem="23" numFmtId="3"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="6" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="24">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="4" level="1">
-        <member name="[Calendar Day].[Month Report].&amp;[2021-03]"/>
-        <member name="[Calendar Day].[Month Report].&amp;[2021-04]"/>
-        <member name="[Calendar Day].[Month Report].&amp;[2021-05]"/>
-        <member name="[Calendar Day].[Month Report].&amp;[2021-07]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="75" level="1">
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name="[Source].[ID].&amp;[79]"/>
-        <member name=""/>
-        <member name=""/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="15"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="75" columnCount="1" cacheId="1310568962">
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>185</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>191</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>192</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>194</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>196</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>198</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>200</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>201</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>203</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>212</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>216</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>219</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>220</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>220</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>223</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>224</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>226</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>227</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>229</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>233</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>235</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>237</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>237</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>237</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>238</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>240</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>240</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>243</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>243</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>243</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>244</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>245</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>245</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>245</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>247</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>247</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>248</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>248</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>249</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>249</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>250</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>252</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>255</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>256</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>256</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>257</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>258</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>258</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>259</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>260</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>264</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>266</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>266</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>266</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>267</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>268</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>269</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>269</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>270</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>273</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>275</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>276</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>278</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>281</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>284</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>286</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>292</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>292</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>294</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>297</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>299</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>307</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>312</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>320</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18401</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F5D90C4-7451-4501-BB4E-FF51E9914DD7}" name="PivotChartTable8" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" fieldListSortAscending="1">
-  <location ref="A1:B90" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="88">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="89">
-    <i>
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="85"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="3" baseField="0" baseItem="87" numFmtId="3"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="6" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="24">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="4" level="1">
-        <member name="[Calendar Day].[Month Report].&amp;[2021-03]"/>
-        <member name="[Calendar Day].[Month Report].&amp;[2021-04]"/>
-        <member name="[Calendar Day].[Month Report].&amp;[2021-05]"/>
-        <member name="[Calendar Day].[Month Report].&amp;[2021-07]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="75" level="1">
-        <member name="[Source].[ID].&amp;[1]"/>
-        <member name="[Source].[ID].&amp;[10]"/>
-        <member name="[Source].[ID].&amp;[11]"/>
-        <member name="[Source].[ID].&amp;[12]"/>
-        <member name="[Source].[ID].&amp;[13]"/>
-        <member name="[Source].[ID].&amp;[14]"/>
-        <member name="[Source].[ID].&amp;[15]"/>
-        <member name="[Source].[ID].&amp;[16]"/>
-        <member name="[Source].[ID].&amp;[17]"/>
-        <member name="[Source].[ID].&amp;[18]"/>
-        <member name="[Source].[ID].&amp;[19]"/>
-        <member name="[Source].[ID].&amp;[2]"/>
-        <member name="[Source].[ID].&amp;[20]"/>
-        <member name="[Source].[ID].&amp;[21]"/>
-        <member name="[Source].[ID].&amp;[22]"/>
-        <member name="[Source].[ID].&amp;[23]"/>
-        <member name="[Source].[ID].&amp;[24]"/>
-        <member name="[Source].[ID].&amp;[25]"/>
-        <member name="[Source].[ID].&amp;[26]"/>
-        <member name="[Source].[ID].&amp;[27]"/>
-        <member name="[Source].[ID].&amp;[28]"/>
-        <member name="[Source].[ID].&amp;[29]"/>
-        <member name="[Source].[ID].&amp;[3]"/>
-        <member name="[Source].[ID].&amp;[30]"/>
-        <member name="[Source].[ID].&amp;[31]"/>
-        <member name="[Source].[ID].&amp;[32]"/>
-        <member name="[Source].[ID].&amp;[33]"/>
-        <member name="[Source].[ID].&amp;[34]"/>
-        <member name="[Source].[ID].&amp;[35]"/>
-        <member name="[Source].[ID].&amp;[36]"/>
-        <member name="[Source].[ID].&amp;[37]"/>
-        <member name="[Source].[ID].&amp;[38]"/>
-        <member name="[Source].[ID].&amp;[39]"/>
-        <member name="[Source].[ID].&amp;[4]"/>
-        <member name="[Source].[ID].&amp;[40]"/>
-        <member name="[Source].[ID].&amp;[41]"/>
-        <member name="[Source].[ID].&amp;[42]"/>
-        <member name="[Source].[ID].&amp;[43]"/>
-        <member name="[Source].[ID].&amp;[44]"/>
-        <member name="[Source].[ID].&amp;[45]"/>
-        <member name="[Source].[ID].&amp;[46]"/>
-        <member name="[Source].[ID].&amp;[47]"/>
-        <member name="[Source].[ID].&amp;[48]"/>
-        <member name="[Source].[ID].&amp;[49]"/>
-        <member name="[Source].[ID].&amp;[51]"/>
-        <member name="[Source].[ID].&amp;[52]"/>
-        <member name="[Source].[ID].&amp;[53]"/>
-        <member name="[Source].[ID].&amp;[54]"/>
-        <member name="[Source].[ID].&amp;[56]"/>
-        <member name="[Source].[ID].&amp;[57]"/>
-        <member name="[Source].[ID].&amp;[58]"/>
-        <member name="[Source].[ID].&amp;[59]"/>
-        <member name="[Source].[ID].&amp;[6]"/>
-        <member name="[Source].[ID].&amp;[60]"/>
-        <member name="[Source].[ID].&amp;[61]"/>
-        <member name="[Source].[ID].&amp;[62]"/>
-        <member name="[Source].[ID].&amp;[63]"/>
-        <member name="[Source].[ID].&amp;[64]"/>
-        <member name="[Source].[ID].&amp;[65]"/>
-        <member name="[Source].[ID].&amp;[66]"/>
-        <member name="[Source].[ID].&amp;[67]"/>
-        <member name="[Source].[ID].&amp;[68]"/>
-        <member name="[Source].[ID].&amp;[69]"/>
-        <member name="[Source].[ID].&amp;[7]"/>
-        <member name="[Source].[ID].&amp;[70]"/>
-        <member name="[Source].[ID].&amp;[71]"/>
-        <member name="[Source].[ID].&amp;[72]"/>
-        <member name="[Source].[ID].&amp;[73]"/>
-        <member name="[Source].[ID].&amp;[74]"/>
-        <member name="[Source].[ID].&amp;[75]"/>
-        <member name="[Source].[ID].&amp;[76]"/>
-        <member name="[Source].[ID].&amp;[78]"/>
-        <member name="[Source].[ID].&amp;[79]"/>
-        <member name="[Source].[ID].&amp;[8]"/>
-        <member name="[Source].[ID].&amp;[9]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="14"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="89" columnCount="1" cacheId="132711308">
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>141</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>146</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>149</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>154</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>158</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>160</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>168</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>169</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>173</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>174</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>174</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>174</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>175</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>175</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>179</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>184</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>184</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>186</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>187</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>187</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>187</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>187</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>189</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>189</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>190</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>191</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>193</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>193</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>194</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>195</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>197</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>197</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>198</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>198</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>198</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>200</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>200</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>201</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>202</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>202</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>206</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>207</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>207</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>208</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>209</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>210</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>210</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>210</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>211</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>211</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>211</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>214</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>214</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>217</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>217</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>218</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>220</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>221</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>223</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>223</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>226</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>227</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>229</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>229</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>231</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>233</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>236</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>236</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>238</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>238</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>239</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>240</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>240</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>242</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>242</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>243</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>246</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>247</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>247</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>248</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>250</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>253</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>256</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>258</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>259</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>265</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>266</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>272</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18401</x15:v>
+            <x15:v>938937</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>1012683</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>1123195</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>1430760</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>1469179</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>1559601</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>1572191</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>2360262</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>2875035</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>3016482</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>3052423</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>5297487</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>6213397</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>6216814</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>6321457</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>6497111</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>7155603</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>7343410</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>7353488</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>7956310</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>7991766</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>8151956</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>8580728</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>8791649</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>9016198</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>9300673</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>9612655</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>9834499</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>9893214</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10123118</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10360098</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10588644</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10678219</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12699710</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12910775</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>13294042</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>13331851</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>13912988</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14106280</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14220323</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14431043</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14607659</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14621886</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14637771</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14666195</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14822414</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>15209871</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>15320011</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>15441754</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>15801641</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>16153747</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>16588782</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>16718431</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>17312150</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>17873234</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>19823326</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>19948401</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20203021</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20278653</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20566908</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22877260</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>25382278</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26935980</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28560826</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30117832</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>32323881</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>35493068</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>834883234</x15:v>
           </x15:c>
         </x15:pivotRow>
       </x15:pivotTableData>
@@ -22551,14 +22591,14 @@
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{03082B11-2C62-411c-B77F-237D8FCFBE4C}">
       <x15:slicerCachePivotTables>
+        <pivotTable tabId="4294967295" name="PivotChartTable4"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable2"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable1"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable5"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable6"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable7"/>
         <pivotTable tabId="4294967295" name="PivotChartTable8"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable7"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable6"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable5"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable1"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable2"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable4"/>
       </x15:slicerCachePivotTables>
     </x:ext>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
@@ -22621,14 +22661,14 @@
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{03082B11-2C62-411c-B77F-237D8FCFBE4C}">
       <x15:slicerCachePivotTables>
+        <pivotTable tabId="4294967295" name="PivotChartTable4"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable2"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable1"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable5"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable6"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable7"/>
         <pivotTable tabId="4294967295" name="PivotChartTable8"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable7"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable6"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable5"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable1"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable2"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable4"/>
       </x15:slicerCachePivotTables>
     </x:ext>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
@@ -22687,14 +22727,14 @@
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{03082B11-2C62-411c-B77F-237D8FCFBE4C}">
       <x15:slicerCachePivotTables>
+        <pivotTable tabId="4294967295" name="PivotChartTable4"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable2"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable1"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable5"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable6"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable7"/>
         <pivotTable tabId="4294967295" name="PivotChartTable8"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable7"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable6"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable5"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable1"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable2"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable4"/>
       </x15:slicerCachePivotTables>
     </x:ext>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
@@ -22883,14 +22923,14 @@
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{03082B11-2C62-411c-B77F-237D8FCFBE4C}">
       <x15:slicerCachePivotTables>
+        <pivotTable tabId="4294967295" name="PivotChartTable4"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable2"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable1"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable5"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable6"/>
+        <pivotTable tabId="4294967295" name="PivotChartTable7"/>
         <pivotTable tabId="4294967295" name="PivotChartTable8"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable7"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable6"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable5"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable1"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable2"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable3"/>
-        <pivotTable tabId="4294967295" name="PivotChartTable4"/>
       </x15:slicerCachePivotTables>
     </x:ext>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
@@ -23354,6 +23394,10 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M7" s="4"/>
     </row>
+    <row r="8" spans="1:27" s="5" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="10"/>
+    </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N9" s="3"/>
       <c r="AA9" s="6">
@@ -23364,6 +23408,7 @@
       <c r="B33" s="10"/>
       <c r="M33" s="5"/>
     </row>
+    <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:13" s="5" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="10"/>
